--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,45; 22,76</t>
+          <t>5,7; 22,42</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,98; 16,75</t>
+          <t>1,93; 17,81</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 6,15</t>
+          <t>-1,59; 6,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,9; 101,63</t>
+          <t>18,31; 99,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>3,6; 77,92</t>
+          <t>6,35; 77,52</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 141,76</t>
+          <t>-19,53; 136,07</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,57; 18,05</t>
+          <t>7,88; 17,47</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,81; 20,82</t>
+          <t>9,44; 21,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,97; 15,53</t>
+          <t>4,56; 15,18</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,2; 13,24</t>
+          <t>3,64; 12,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,02; 144,65</t>
+          <t>46,49; 140,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>31,11; 91,11</t>
+          <t>32,29; 91,45</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>21,81; 92,29</t>
+          <t>22,19; 91,76</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>29,39; 152,73</t>
+          <t>23,84; 138,29</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,45; 14,49</t>
+          <t>1,87; 15,34</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,73; 19,12</t>
+          <t>2,9; 17,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 11,72</t>
+          <t>-1,14; 11,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 6,08</t>
+          <t>-3,34; 5,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,59; 74,86</t>
+          <t>7,65; 78,86</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>11,02; 74,14</t>
+          <t>8,62; 67,26</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 66,22</t>
+          <t>-5,32; 69,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-22,02; 61,68</t>
+          <t>-23,27; 58,24</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,58; 13,7</t>
+          <t>0,86; 14,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,42; 21,96</t>
+          <t>11,97; 22,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,77; 21,62</t>
+          <t>8,67; 21,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 4,87</t>
+          <t>-6,63; 5,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,14; 63,79</t>
+          <t>2,0; 67,32</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,63; 80,64</t>
+          <t>37,37; 82,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,06; 158,82</t>
+          <t>42,7; 166,65</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-34,73; 39,86</t>
+          <t>-33,58; 45,96</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 17,76</t>
+          <t>1,79; 18,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,67; 25,33</t>
+          <t>7,42; 26,77</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 12,08</t>
+          <t>-6,25; 11,66</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,91; 4,28</t>
+          <t>-5,71; 4,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,99; 151,8</t>
+          <t>9,17; 152,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,2; 117,94</t>
+          <t>22,34; 119,3</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,97; 38,04</t>
+          <t>-14,75; 37,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-44,27; 53,69</t>
+          <t>-41,7; 66,06</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,8; 8,54</t>
+          <t>-5,48; 8,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>1,04; 17,24</t>
+          <t>0,97; 17,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,06; 9,34</t>
+          <t>-6,46; 8,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 11,36</t>
+          <t>-0,61; 11,6</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,61; 43,57</t>
+          <t>-20,24; 45,12</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,52; 67,16</t>
+          <t>3,18; 67,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,63; 44,82</t>
+          <t>-23,61; 44,57</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,62; 75,6</t>
+          <t>-3,1; 76,46</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,25; 21,74</t>
+          <t>12,01; 21,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,34; 13,29</t>
+          <t>2,39; 13,35</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,93; 15,81</t>
+          <t>5,82; 15,64</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,24; 46,19</t>
+          <t>1,17; 48,21</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>52,97; 138,65</t>
+          <t>58,02; 136,49</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,67; 43,78</t>
+          <t>6,41; 43,75</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,24; 86,85</t>
+          <t>24,3; 82,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 1166,82</t>
+          <t>17,16; 1261,16</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,33; 11,25</t>
+          <t>2,5; 11,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,58; 21,56</t>
+          <t>11,78; 21,47</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,91; 15,66</t>
+          <t>6,4; 15,91</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,62; 15,25</t>
+          <t>5,76; 15,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,74; 63,22</t>
+          <t>10,73; 63,29</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>37,53; 86,96</t>
+          <t>38,97; 87,72</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>17,54; 56,71</t>
+          <t>18,95; 57,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>23,35; 87,51</t>
+          <t>22,66; 82,75</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,33</t>
+          <t>8,15; 12,42</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,94</t>
+          <t>10,9; 15,87</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,49</t>
+          <t>7,24; 11,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,93</t>
+          <t>3,93; 15,88</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>37,29; 64,13</t>
+          <t>38,66; 65,08</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>37,35; 57,28</t>
+          <t>36,42; 56,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,35; 50,57</t>
+          <t>28,86; 51,8</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>27,72; 112,97</t>
+          <t>28,02; 123,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,7; 22,42</t>
+          <t>5,32; 22,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,93; 17,81</t>
+          <t>1,46; 16,76</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,7 +688,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>18,31; 99,09</t>
+          <t>17,67; 97,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,7 +698,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,35; 77,52</t>
+          <t>4,86; 75,67</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 17,47</t>
+          <t>7,6; 18,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,44; 21,1</t>
+          <t>8,26; 20,66</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,56; 15,18</t>
+          <t>5,06; 15,83</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>46,49; 140,98</t>
+          <t>44,07; 151,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>32,29; 91,45</t>
+          <t>28,85; 89,16</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,19; 91,76</t>
+          <t>22,97; 95,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,87; 15,34</t>
+          <t>2,14; 15,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,9; 17,71</t>
+          <t>3,86; 18,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 11,85</t>
+          <t>-0,25; 12,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,65; 78,86</t>
+          <t>7,71; 82,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,62; 67,26</t>
+          <t>12,33; 70,71</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-5,32; 69,58</t>
+          <t>-1,51; 70,06</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,86; 14,31</t>
+          <t>0,14; 13,78</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,97; 22,15</t>
+          <t>11,58; 22,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,67; 21,92</t>
+          <t>8,62; 21,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,0; 67,32</t>
+          <t>0,36; 63,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>37,37; 82,81</t>
+          <t>34,73; 80,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,7; 166,65</t>
+          <t>44,3; 158,55</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,79; 18,05</t>
+          <t>2,08; 18,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,42; 26,77</t>
+          <t>7,33; 25,73</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,25; 11,66</t>
+          <t>-7,21; 11,98</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,17; 152,46</t>
+          <t>9,89; 151,1</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,34; 119,3</t>
+          <t>22,2; 116,08</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; 37,07</t>
+          <t>-16,94; 38,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,48; 8,94</t>
+          <t>-4,78; 9,26</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,97; 17,35</t>
+          <t>0,47; 18,15</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,46; 8,99</t>
+          <t>-6,11; 8,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-20,24; 45,12</t>
+          <t>-17,87; 48,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>3,18; 67,11</t>
+          <t>0,23; 67,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-23,61; 44,57</t>
+          <t>-21,87; 42,79</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1268,17 +1268,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,01; 21,73</t>
+          <t>12,12; 22,25</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,39; 13,35</t>
+          <t>2,87; 13,91</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,82; 15,64</t>
+          <t>5,74; 15,73</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1288,17 +1288,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>58,02; 136,49</t>
+          <t>57,34; 139,8</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 43,75</t>
+          <t>8,01; 46,36</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>24,3; 82,55</t>
+          <t>25,4; 86,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1368,17 +1368,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,45</t>
+          <t>2,36; 11,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,78; 21,47</t>
+          <t>11,92; 21,35</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,4; 15,91</t>
+          <t>6,21; 16,38</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1388,17 +1388,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,73; 63,29</t>
+          <t>10,03; 62,73</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>38,97; 87,72</t>
+          <t>39,71; 88,24</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>18,95; 57,34</t>
+          <t>19,8; 61,86</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1468,17 +1468,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,42</t>
+          <t>8,15; 12,3</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,87</t>
+          <t>11,03; 15,96</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,68</t>
+          <t>7,22; 11,73</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>38,66; 65,08</t>
+          <t>38,4; 64,97</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,42; 56,87</t>
+          <t>36,65; 57,17</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>28,86; 51,8</t>
+          <t>29,16; 51,47</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">

--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,17 +630,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>9,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,59</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>52,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -650,12 +650,12 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>35,55%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,7 +668,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 22,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -678,17 +678,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,46; 16,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,59; 6,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 97,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -698,12 +698,12 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,86; 75,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,53; 136,07</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,94</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8,73</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>88,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,83%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,6; 18,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,26; 20,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,06; 15,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,64; 12,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>44,07; 151,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,85; 89,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>22,97; 95,03</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,84; 138,29</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>8,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>38,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>37,64%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 15,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 18,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 12,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 5,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 82,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>12,33; 70,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 70,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 58,24</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>7,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>17,1</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>14,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>29,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-1,27%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,14; 13,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,58; 22,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,62; 21,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0,36; 63,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>34,73; 80,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,3; 158,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-33,58; 45,96</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>10,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>16,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>65,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>61,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-3,06%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,08; 18,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,33; 25,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 11,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,71; 4,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>9,89; 151,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,2; 116,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 38,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-41,7; 66,06</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>32,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,78; 9,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,47; 18,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-6,11; 8,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 11,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-17,87; 48,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0,23; 67,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-21,87; 42,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 76,46</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>16,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>7,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>10,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>14,84</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>23,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>51,14%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>276,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>12,12; 22,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,87; 13,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>5,74; 15,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>1,17; 48,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>57,34; 139,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,01; 46,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>25,4; 86,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>17,16; 1261,16</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>11,21</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10,0</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>34,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>60,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>37,45%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>46,37%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,36; 11,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>11,92; 21,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>6,21; 16,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>5,76; 15,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,03; 62,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,71; 88,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>19,8; 61,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>22,66; 82,75</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>38,4; 64,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>36,65; 57,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>29,16; 51,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,02; 123,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>17,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,4</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,42%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,27%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 24,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,75; 27,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,81; 16,43</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,85; 3,69</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,6; 54,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,89; 62,8</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,93; 42,46</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,5; 177,16</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>124,24%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,76; 19,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,41; 25,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,96; 17,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,51; 10,31</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,47; 80,24</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,26; 67,54</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,46; 51,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>43,43; 257,42</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,62</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,38</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,19</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,54%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 19,2</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,32; 15,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,95; 13,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 4,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 55,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,04; 34,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,26; 39,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,15; 127,03</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,53</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,42</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,04%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,52%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,7; 13,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,28; 22,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,49; 23,66</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,23; 6,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,99; 31,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,46; 52,71</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 83,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,07; 102,04</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,11</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,36</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,04%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,89%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-41,3%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 17,7</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,64; 30,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,0; 13,77</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,76; 0,38</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,34; 78,65</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,54; 95,58</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,13; 26,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-75,59; 6,03</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,51</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,85</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,68</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-5,84%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,7%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,2%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,96%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,72; 7,6</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,89; 18,37</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,96; 11,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,27; 5,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,58; 19,95</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,4; 40,99</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,32; 33,42</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,52; 57,42</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,18</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,28</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,0%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>798,26%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,08; 23,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,26; 10,11</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 15,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 62,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,52; 77,85</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,08; 17,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,69; 42,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,1; 3174,76</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,91</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,92</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,89</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,84</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,84%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,02%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,22%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,32%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,78; 13,68</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,91; 21,27</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 13,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,86; 21,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,36; 45,09</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,2; 50,27</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 26,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>42,39; 389,94</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,02%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 12,35</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,08; 15,09</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 10,01</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 24,0</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,62; 34,79</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,68; 31,63</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 23,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,8; 332,44</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,47; 24,74</t>
+          <t>1,31; 24,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,75; 27,51</t>
+          <t>6,47; 27,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 16,43</t>
+          <t>-5,18; 15,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 3,69</t>
+          <t>-1,55; 3,6</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,6; 54,87</t>
+          <t>2,27; 55,18</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,89; 62,8</t>
+          <t>11,44; 60,64</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 42,46</t>
+          <t>-10,35; 42,09</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-36,5; 177,16</t>
+          <t>-31,83; 158,67</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,76; 19,23</t>
+          <t>4,49; 20,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>10,41; 25,62</t>
+          <t>10,08; 26,07</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 17,53</t>
+          <t>0,07; 17,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,31</t>
+          <t>2,87; 10,28</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>11,47; 80,24</t>
+          <t>13,54; 81,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>22,26; 67,54</t>
+          <t>22,39; 70,33</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,46; 51,93</t>
+          <t>0,29; 50,37</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,43; 257,42</t>
+          <t>33,2; 246,29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 19,2</t>
+          <t>-0,85; 18,68</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 15,87</t>
+          <t>-2,58; 16,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-5,95; 13,25</t>
+          <t>-4,93; 12,95</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 4,82</t>
+          <t>-1,83; 4,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,12; 55,94</t>
+          <t>-1,87; 56,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-6,04; 34,09</t>
+          <t>-4,61; 35,57</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-13,26; 39,47</t>
+          <t>-10,93; 39,47</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-27,15; 127,03</t>
+          <t>-25,37; 119,2</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 13,17</t>
+          <t>-6,68; 11,9</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,28; 22,59</t>
+          <t>4,28; 22,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,49; 23,66</t>
+          <t>4,33; 24,12</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-5,23; 6,23</t>
+          <t>-5,27; 6,4</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,99; 31,66</t>
+          <t>-12,95; 29,75</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,46; 52,71</t>
+          <t>8,21; 52,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>10,96; 83,15</t>
+          <t>10,92; 87,09</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 102,04</t>
+          <t>-45,76; 105,57</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 17,7</t>
+          <t>-5,52; 18,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,64; 30,43</t>
+          <t>5,98; 29,7</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-10,0; 13,77</t>
+          <t>-9,33; 13,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 0,38</t>
+          <t>-8,18; 0,72</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-17,34; 78,65</t>
+          <t>-16,39; 75,47</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,54; 95,58</t>
+          <t>13,88; 91,77</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-15,13; 26,47</t>
+          <t>-14,12; 26,01</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 6,03</t>
+          <t>-73,23; 10,78</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-13,72; 7,6</t>
+          <t>-13,42; 7,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 18,37</t>
+          <t>-2,29; 18,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-9,96; 11,68</t>
+          <t>-8,79; 12,2</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 5,26</t>
+          <t>-4,07; 5,84</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-27,58; 19,95</t>
+          <t>-28,15; 19,35</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 40,99</t>
+          <t>-4,47; 41,51</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-22,32; 33,42</t>
+          <t>-19,25; 34,11</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-30,52; 57,42</t>
+          <t>-28,81; 68,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>10,08; 23,72</t>
+          <t>10,46; 24,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 10,11</t>
+          <t>-3,68; 10,66</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,73; 15,43</t>
+          <t>0,67; 14,8</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 62,51</t>
+          <t>0,53; 56,19</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,52; 77,85</t>
+          <t>26,57; 78,64</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,08; 17,72</t>
+          <t>-5,69; 17,88</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 42,92</t>
+          <t>1,23; 39,2</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>14,1; 3174,76</t>
+          <t>13,37; 4288,91</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>1,78; 13,68</t>
+          <t>2,05; 13,87</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>8,91; 21,27</t>
+          <t>8,41; 20,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 13,29</t>
+          <t>0,46; 12,99</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,86; 21,61</t>
+          <t>8,01; 22,09</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,36; 45,09</t>
+          <t>6,07; 46,52</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,2; 50,27</t>
+          <t>16,74; 48,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0,53; 26,94</t>
+          <t>0,95; 26,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>42,39; 389,94</t>
+          <t>42,21; 358,6</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,35</t>
+          <t>5,88; 12,05</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,09</t>
+          <t>9,28; 15,37</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,01</t>
+          <t>3,95; 10,4</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,43; 24,0</t>
+          <t>3,41; 24,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,79</t>
+          <t>14,98; 34,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,63</t>
+          <t>18,16; 32,31</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>8,0; 23,76</t>
+          <t>8,82; 24,6</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>40,8; 332,44</t>
+          <t>42,17; 321,31</t>
         </is>
       </c>
     </row>
